--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -19,13 +19,13 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-09-09</t>
+    <t>2023-09-16</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
-    <t>2023-10-09</t>
+    <t>2023-10-16</t>
   </si>
   <si>
     <t>Total Orders</t>
@@ -55,31 +55,37 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>651d2612962a877fe7fc7e0e</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>krishnamidhuna850@gmail.com</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>651d6bb8ac343c4a52b17ea3</t>
+  </si>
+  <si>
     <t>6516b47210ea3a730c294523</t>
   </si>
   <si>
     <t>2023-10-06</t>
   </si>
   <si>
-    <t>krishnamidhuna850@gmail.com</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>651d2612962a877fe7fc7e0e</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>651d6bb8ac343c4a52b17ea3</t>
-  </si>
-  <si>
     <t>651d6bebac343c4a52b17f10</t>
   </si>
   <si>
     <t>cod</t>
+  </si>
+  <si>
+    <t>652a983e877bf22b6b6a6364</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
   </si>
 </sst>
 </file>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -538,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>16996</v>
+        <v>24676</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>5000</v>
+        <v>2999</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -621,7 +627,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -641,10 +647,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -653,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>2999</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -667,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -682,30 +688,53 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>7680</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="1">
-        <v>16996</v>
+      <c r="H15" s="1">
+        <v>24676</v>
       </c>
     </row>
   </sheetData>

--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t/>
   </si>
@@ -19,73 +19,61 @@
     <t>From</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-10</t>
   </si>
   <si>
     <t>To</t>
   </si>
   <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>Total Orders</t>
+  </si>
+  <si>
+    <t>Net Total Price</t>
+  </si>
+  <si>
+    <t>SL. No</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>652a983e877bf22b6b6a6364</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>krishnamidhuna850@gmail.com</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>652cb225872647881ac64a03</t>
+  </si>
+  <si>
     <t>2023-10-16</t>
   </si>
   <si>
-    <t>Total Orders</t>
-  </si>
-  <si>
-    <t>Net Total Price</t>
-  </si>
-  <si>
-    <t>SL. No</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
-    <t>Payment Mode</t>
-  </si>
-  <si>
-    <t>651d2612962a877fe7fc7e0e</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>krishnamidhuna850@gmail.com</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>651d6bb8ac343c4a52b17ea3</t>
-  </si>
-  <si>
-    <t>6516b47210ea3a730c294523</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>651d6bebac343c4a52b17f10</t>
-  </si>
-  <si>
-    <t>cod</t>
-  </si>
-  <si>
-    <t>652a983e877bf22b6b6a6364</t>
-  </si>
-  <si>
-    <t>2023-10-14</t>
+    <t>652d2c7a53b05b860ae1945e</t>
   </si>
 </sst>
 </file>
@@ -466,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="H4">
-        <v>24676</v>
+        <v>17520</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2999</v>
+        <v>7680</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -627,7 +615,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -636,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2999</v>
+        <v>3840</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -647,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -659,82 +647,36 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>5998</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>7680</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="1">
-        <v>24676</v>
+      <c r="H13" s="1">
+        <v>17520</v>
       </c>
     </row>
   </sheetData>
